--- a/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16_0.XLSX
+++ b/raw/IHME_GBD_2021_COD_CAUSE_ICD_CODE_MAP_Y2024M05D16_0.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DATA\em_ENT\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DATA\IHME_RESULTS\2024_0516_GBD_2021\GBD_CAUSE_ICD_CODE_MAPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7D1947-684A-4911-8389-7B4E76706BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1809B2-D378-4AA1-8FB6-97C4291DFDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="60" windowWidth="28800" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2449,6 +2449,9 @@
     <t>Garbage Code (GBD Level 3)</t>
   </si>
   <si>
+    <t>A01, A31-A31.9, A42-A44.9, A49.2, A64-A64.0, A99-A99.0, B17, B17.1, B17.8-B17.9, B19-B19.0, B19.2-B19.9, B37-B46.9, B49-B49.9, B55, B55.1-B55.9, B58-B59.9, B89, B94.2, C14-C14.9, C22.9, C26-C29, C35-C36, C39-C39.9, C42, C46-C46.9, C55-C55.9, C57.9, C59, C63.9, C68, C68.9, C74-C74.9, C75.9-C80.9, C83, C83.9, C85.1, C85.9, C87, C94.6, C97-D00.0, D01, D01.4-D02, D02.4-D02.9, D07, D07.3, D07.6-D09, D09.1, D09.7, D09.9-D10, D10.9, D13, D13.9-D14, D14.4, D17-D21.9, D28, D28.9-D29, D29.9-D30, D30.9, D36.0, D36.9-D37.0, D37.6-D38, D38.6-D39.0, D39.7, D39.9-D40, D40.9-D41, D41.9, D44, D44.9, D48, D48.7-D49.1, D49.5, D49.7-D49.9, D54, D75.9, D79-D85, D87-D88, D89.8-D99, E07.8-E08.9, E17-E19, E34.0, E34.9-E35.8, E37-E39, E47-E49., E62, E69, E87.7, E90-E998, F04-F06.1, F06.5-F07.0, F07.8-F08, F50, F50.8-F50.9, G09-G09.9, G15-G19, G21, G21.2, G21.4-G22.0, G27-G29, G33-G34, G38-G39., G42, G48-G49, G66-G69, G74-G79, G84-G88, G93.8-G94, G96-G96.9, G98-G98.9, I00.0, I03-I04., I14-I14., I16-I19, I29-I29.9, I44-I45.9, I49-I49.9, I51, I51.6-I59, I90-I94, I96-I96.9, I98.4-I98.8, I99-ID5.9, J02.9, J03.9, J04.3, J06, J06.9, J40-J40.9, J47-J59, J65-J65.0, J71-J79, J81.9, J83, J85.9, J87-J89, J90.9, J93.6, J97-J98.0, J98.4-J99.8, K21-K21.9, K22.7, K31.9-K34, K39, K47-K49, K53-K54, K63-K63.4, K63.8-K63.9, K69, K70.4-K70.9, K78-K79, K84, K87-K89, K92, K92.9-K93, K96-K99, L06-L07, L09, L15-L19, L31-L39, L69, L77-L79, N09, N13-N13.5, N13.7-N13.9, N24, N28.8-N28.9, N38, N39.9-N40.9, N54-N59, N66-N69, N78-N79, N84, N84.2-N86, N88-N90.9, N92-N94.9, N95.0, O08-O08.9, O17-O19, O27, O37-O39, O49-O59, O78-O79, O93-O95.9, P06, P16-P18, P30-P34.2, P40-P49, P62-P69, P73, P79, P82, P85-P89, P96.9-P99.9, Q08-Q10.3, Q19, Q29-Q29., Q36.0-Q36.9, Q46-Q49, Q88, Q89.9, Q94, Q99.9-R01.2, R07, R07.1-R07.9, R31-R31.9</t>
+  </si>
+  <si>
     <t>002, 031-031.9, 039-039.9, 070, 070.4-070.9, 085, 085.1-085.9, 088.0-088.7, 112-118.9, 130-130.9, 136.3-136.5, 149-149.9, 155.2, 159-159.9, 165-169, 176-179.9, 183.9-184, 184.5, 184.9, 187, 187.9, 189, 189.9, 190.9, 195-199.9, 202.9, 209, 209.2-209.3, 209.6-210, 211, 211.9-212, 212.9, 214-216.9, 221, 221.9-222, 222.9-223, 223.9, 229, 229.1, 229.9-230.0, 230.9-231, 231.8-231.9, 233, 233.3, 233.6, 233.9-234, 234.9-235, 235.1-235.3, 235.5, 235.9-236, 236.3, 236.6, 236.9, 237.4, 239-239.1, 239.5, 239.7-239.9, 249-249.9, 259.2, 278, 279-279.9, 293.0-293.9, 331.3-331.4, 332.1-332.9, 347-348.9, 349.9, 357, 357.8-357.9, 399-400.0, 406-409.4, 418-419.9, 426-427, 427.4, 429, 429.2-429.9, 459.5-459.9, 464.5, 465, 465.9, 505-505.9, 519, 519.8-519.9, 530.1, 530.7-530.9, 544-549, 559-559.0, 560.4-560.7, 561, 562.2-563, 569, 569.8-569.9, 591-591.9, 593.9, 599.9-600.9, 623.7, 624.6, 637-637.9, 639-639.9, 749.1, 759, 759.9, 779.9, 782.5, 785-785.3, 786.0-786.2, 786.4-786.5, 786.7, 786.9, 788.1-788.2, E986-E987</t>
   </si>
   <si>
@@ -2564,37 +2567,13 @@
   </si>
   <si>
     <t>Appendix Table 6: List of International Classification of Diseases (ICD) codes mapped to the Global Burden of Diseases cause list for causes of death</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A01, A31-A31.9, A42-A44.9, A49.2, A64-A64.0, A99-A99.0, B17, B17.1, B17.8-B17.9, B19-B19.0, B19.2-B19.9, B37-B46.9, B49-B49.9, B55, B55.1-B55.9, B58-B59.9, B89, B94.2, C14-C14.9, C22.9, C26-C29, C35-C36, C39-C39.9, C42, C46-C46.9, C55-C55.9, C57.9, C59, C63.9, C68, C68.9, C74-C74.9, C75.9-C80.9, C83, C83.9, C85.1, C85.9, C87, C94.6, C97-D00.0, D01, D01.4-D02, D02.4-D02.9, D07, D07.3, D07.6-D09, D09.1, D09.7, D09.9-D10, D10.9, D13, D13.9-D14, D14.4, D17-D21.9, D28, D28.9-D29, D29.9-D30, D30.9, D36.0, D36.9-D37.0, D37.6-D38, D38.6-D39.0, D39.7, D39.9-D40, D40.9-D41, D41.9, D44, D44.9, D48, D48.7-D49.1, D49.5, D49.7-D49.9, D54, D75.9, D79-D85, D87-D88, D89.8-D99, E07.8-E08.9, E17-E19, E34.0, E34.9-E35.8, E37-E39, E47-E49., E62, E69, E87.7, E90-E998, F04-F06.1, F06.5-F07.0, F07.8-F08, F50, F50.8-F50.9, G09-G09.9, G15-G19, G21, G21.2, G21.4-G22.0, G27-G29, G33-G34, G38-G39., G42, G48-G49, G66-G69, G74-G79, G84-G88, G93.8-G94, G96-G96.9, G98-G98.9, I00.0, I03-I04., I14-I14., I16-I19, I29-I29.9, I44-I45.9, I49-I49.9, I51, I51.6-I59, I90-I94, I96-I96.9, I98.4-I98.8, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>I99-ID5.9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="2"/>
-      </rPr>
-      <t>, J02.9, J03.9, J04.3, J06, J06.9, J40-J40.9, J47-J59, J65-J65.0, J71-J79, J81.9, J83, J85.9, J87-J89, J90.9, J93.6, J97-J98.0, J98.4-J99.8, K21-K21.9, K22.7, K31.9-K34, K39, K47-K49, K53-K54, K63-K63.4, K63.8-K63.9, K69, K70.4-K70.9, K78-K79, K84, K87-K89, K92, K92.9-K93, K96-K99, L06-L07, L09, L15-L19, L31-L39, L69, L77-L79, N09, N13-N13.5, N13.7-N13.9, N24, N28.8-N28.9, N38, N39.9-N40.9, N54-N59, N66-N69, N78-N79, N84, N84.2-N86, N88-N90.9, N92-N94.9, N95.0, O08-O08.9, O17-O19, O27, O37-O39, O49-O59, O78-O79, O93-O95.9, P06, P16-P18, P30-P34.2, P40-P49, P62-P69, P73, P79, P82, P85-P89, P96.9-P99.9, Q08-Q10.3, Q19, Q29-Q29., Q36.0-Q36.9, Q46-Q49, Q88, Q89.9, Q94, Q99.9-R01.2, R07, R07.1-R07.9, R31-R31.9</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2621,13 +2600,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2765,9 +2737,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2805,9 +2777,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2840,9 +2812,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2875,9 +2864,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3056,8 +3062,8 @@
   </sheetPr>
   <dimension ref="A1:C306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3069,7 +3075,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3759,7 +3765,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>174</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>216</v>
       </c>
@@ -4931,21 +4937,21 @@
         <v>482</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>483</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>485</v>
       </c>
@@ -5829,7 +5835,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>718</v>
       </c>
@@ -5905,7 +5911,7 @@
       </c>
       <c r="C268" s="3"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>736</v>
       </c>
@@ -6147,7 +6153,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="281.25" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>801</v>
       </c>
@@ -6174,147 +6180,147 @@
         <v>807</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>847</v>
+        <v>808</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
